--- a/Jose.Rivera_JR.xlsx
+++ b/Jose.Rivera_JR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jrivera\Documents\2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jrivera\Documents\2021\stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6E7CE1-4BB6-4E1D-8A58-F613B58D2C19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D83A5D-0CDE-45BD-A15F-255227DC39B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,9 +157,6 @@
     <t>Expuesto a elementos de baja peligrosidad tales como caídas o posibles lesiones físicas y descargas eléctricas de menor gravedad.</t>
   </si>
   <si>
-    <t>Elaborar procedimientos y guías de  servicios/soluciones propias del proceso que se administra.</t>
-  </si>
-  <si>
     <t>Atender los incidentes que la primera línea de respuesta ha diagnosticado esta fuera de su conocimiento</t>
   </si>
   <si>
@@ -693,28 +690,30 @@
     <t>Atender requerimientos de auditores internos/externos</t>
   </si>
   <si>
-    <t>Errores en la documentación de los procesos de adquisiciones.
-Falta de seguimiento a las solicitudes de servicios.
-Fala de seguimiento a la atención de incidentes/mantenimientos.
+    <t>Contribuir en la elaboración y supervisión  de las normativas, políticas, lineamientos, estándares y procedimientos.</t>
+  </si>
+  <si>
+    <t>Contribuir en la elaboración de la propuesta de presupuesto de inversiones y gastos en materia de fortalecimiento de la infraestructura tecnológica.</t>
+  </si>
+  <si>
+    <t>Asesorar a la Gerencia de Servicios Tecnológicos en la administración, planificación  y coordinación de los procesos de Gestión de la Servidores, Almacenamiento y Respaldos, Bases de Datos y Soporte Técnico; atender oportunamente y con calidad a las áreas organizativas y clientes del BCN; contribuir en la actualización del marco normativo, formulación y ejecución de presupuesto, Procesos de Aquisiciones,  Atención de Auditorías, Planes de Continuidad y Recuperación ante Desastres para colaborar con la eficiencia de la Gestión Institucional.</t>
+  </si>
+  <si>
+    <t>Falta de seguimiento a las solicitudes de servicios.
+Falta de seguimiento a la atención de incidentes/mantenimientos.
 Falta de atención oportuna a instrucciones dadas por correo.
 Olvido o falta de cumplimiento de los procedimientos. 
 No estar al día con el avance tecnológico.</t>
   </si>
   <si>
-    <t>Contribuir en la elaboración y supervisión  de las normativas, políticas, lineamientos, estándares y procedimientos.</t>
-  </si>
-  <si>
-    <t>Contribuir en la elaboración de la propuesta de presupuesto de inversiones y gastos en materia de fortalecimiento de la infraestructura tecnológica.</t>
-  </si>
-  <si>
-    <t>Asesorar a la Gerencia de Servicios Tecnológicos en la administración, planificación  y coordinación de los procesos de Gestión de la Servidores, Almacenamiento y Respaldos, Bases de Datos y Soporte Técnico; atender oportunamente y con calidad a las áreas organizativas y clientes del BCN; contribuir en la actualización del marco normativo, formulación y ejecución de presupuesto, Procesos de Aquisiciones,  Atención de Auditorías, Planes de Continuidad y Recuperación ante Desastres para colaborar con la eficiencia de la Gestión Institucional.</t>
+    <t>Contribuir en la elaboración de procedimientos y guías de  servicios/soluciones propias del proceso que se administra.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -772,6 +771,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Wingdings 2"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Futura Lt BT"/>
       <family val="1"/>
       <charset val="2"/>
     </font>
@@ -907,7 +913,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -995,6 +1001,75 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1004,27 +1079,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1034,53 +1088,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1512,11 +1521,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:M51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:C44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
@@ -1526,60 +1535,60 @@
     <col min="12" max="12" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:3" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+    <row r="4" spans="1:3" ht="8.25" customHeight="1"/>
+    <row r="5" spans="1:3" ht="5.25" customHeight="1"/>
+    <row r="6" spans="1:3">
+      <c r="A6" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A7" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-    </row>
-    <row r="8" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+    </row>
+    <row r="8" spans="1:3" ht="21.75" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="36"/>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="33"/>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="36"/>
-    </row>
-    <row r="10" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="33"/>
+    </row>
+    <row r="10" spans="1:3" ht="22.5" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="36"/>
-    </row>
-    <row r="11" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="33"/>
+    </row>
+    <row r="11" spans="1:3" ht="20.25" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="36"/>
-    </row>
-    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
+      <c r="B11" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="33"/>
+    </row>
+    <row r="12" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A12" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -1589,8 +1598,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
+    <row r="13" spans="1:3" ht="15" customHeight="1">
+      <c r="A13" s="34"/>
       <c r="B13" s="23" t="s">
         <v>34</v>
       </c>
@@ -1598,44 +1607,44 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
+    <row r="14" spans="1:3" ht="31.5" customHeight="1">
+      <c r="A14" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="49"/>
-    </row>
-    <row r="15" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="49" t="s">
+      <c r="B14" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="34"/>
+    </row>
+    <row r="15" spans="1:3" ht="42" customHeight="1">
+      <c r="A15" s="36"/>
+      <c r="B15" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="49"/>
-    </row>
-    <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+      <c r="C15" s="34"/>
+    </row>
+    <row r="16" spans="1:3" ht="12" customHeight="1">
+      <c r="A16" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-    </row>
-    <row r="17" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+    </row>
+    <row r="17" spans="1:5" ht="11.25" customHeight="1">
+      <c r="A17" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="42"/>
-    </row>
-    <row r="18" spans="1:5" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-    </row>
-    <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="58"/>
+    </row>
+    <row r="18" spans="1:5" ht="99.75" customHeight="1">
+      <c r="A18" s="33"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+    </row>
+    <row r="19" spans="1:5" ht="25.5">
       <c r="A19" s="19" t="s">
         <v>27</v>
       </c>
@@ -1646,18 +1655,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="63.75">
       <c r="A20" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="38.25">
       <c r="A21" s="20" t="s">
         <v>41</v>
       </c>
@@ -1665,225 +1674,225 @@
         <v>37</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="38.25">
       <c r="A22" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="41.25" customHeight="1">
       <c r="A23" s="27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B23" s="26" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="51">
       <c r="A24" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="38.25">
       <c r="A25" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B25" s="24" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" s="25"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="52" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="39"/>
+      <c r="E26" s="25"/>
+    </row>
+    <row r="27" spans="1:5" ht="26.25" customHeight="1">
+      <c r="A27" s="43"/>
+      <c r="B27" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="52"/>
+      <c r="E27" s="25"/>
+    </row>
+    <row r="28" spans="1:5" ht="27" customHeight="1">
+      <c r="A28" s="43"/>
+      <c r="B28" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="E26" s="25"/>
-    </row>
-    <row r="27" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
-      <c r="B27" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="38"/>
-      <c r="E27" s="25"/>
-    </row>
-    <row r="28" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="39" t="s">
+      <c r="C28" s="39"/>
+      <c r="E28" s="25"/>
+    </row>
+    <row r="29" spans="1:5" ht="27" customHeight="1">
+      <c r="A29" s="43"/>
+      <c r="B29" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="40"/>
-      <c r="E28" s="25"/>
-    </row>
-    <row r="29" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
-      <c r="B29" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="34"/>
+      <c r="C29" s="50"/>
       <c r="E29" s="25"/>
     </row>
-    <row r="30" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
-      <c r="B30" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="40"/>
-    </row>
-    <row r="31" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
+    <row r="30" spans="1:5" ht="39" customHeight="1">
+      <c r="A30" s="43"/>
+      <c r="B30" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="39"/>
+    </row>
+    <row r="31" spans="1:5" ht="28.5" customHeight="1">
+      <c r="A31" s="43"/>
       <c r="B31" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="37"/>
+    </row>
+    <row r="32" spans="1:5" ht="38.25" customHeight="1">
+      <c r="A32" s="31"/>
+      <c r="B32" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="37"/>
-    </row>
-    <row r="32" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="59"/>
-      <c r="B32" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="55"/>
-    </row>
-    <row r="33" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="41"/>
+    </row>
+    <row r="33" spans="1:13" ht="65.25" customHeight="1">
       <c r="A33" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C33" s="46"/>
     </row>
-    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="56" t="s">
+    <row r="34" spans="1:13" ht="15" customHeight="1">
+      <c r="A34" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="57"/>
-      <c r="C34" s="58"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="48"/>
+      <c r="C34" s="49"/>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="47"/>
-    </row>
-    <row r="36" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="51"/>
+    </row>
+    <row r="36" spans="1:13" ht="28.5" customHeight="1">
       <c r="A36" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="38"/>
-    </row>
-    <row r="37" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="52"/>
+    </row>
+    <row r="37" spans="1:13" ht="39" customHeight="1">
       <c r="A37" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
       <c r="M37" s="4"/>
     </row>
-    <row r="38" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="30.75" customHeight="1">
       <c r="A38" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="38"/>
+      <c r="C38" s="52"/>
       <c r="I38" s="5"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="5"/>
     </row>
-    <row r="39" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="56" t="s">
+    <row r="39" spans="1:13" ht="25.5" customHeight="1">
+      <c r="A39" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="57"/>
-      <c r="C39" s="58"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="49"/>
       <c r="I39" s="4"/>
       <c r="J39" s="7"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
     </row>
-    <row r="40" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="36" t="s">
+    <row r="40" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A40" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="35"/>
+      <c r="C40" s="53"/>
       <c r="I40" s="4"/>
       <c r="J40" s="7"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
     </row>
-    <row r="41" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
+    <row r="41" spans="1:13" ht="9" customHeight="1">
+      <c r="A41" s="33"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
       <c r="I41" s="4"/>
       <c r="J41" s="7"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
     </row>
-    <row r="42" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="30.75" customHeight="1">
       <c r="A42" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="34"/>
+      <c r="C42" s="50"/>
       <c r="I42" s="2"/>
       <c r="J42" s="3"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
     </row>
-    <row r="43" spans="1:13" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="161.25" customHeight="1">
       <c r="A43" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B43" s="44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C43" s="45"/>
       <c r="I43" s="2"/>
@@ -1892,90 +1901,69 @@
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" spans="1:13" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="91.5" customHeight="1">
       <c r="A44" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="34"/>
+      <c r="B44" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="50"/>
       <c r="I44" s="2"/>
       <c r="J44" s="3"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" spans="1:13" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="135" customHeight="1">
       <c r="A45" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="35"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="53"/>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="12"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13">
       <c r="A47" s="12"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13">
       <c r="A48" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="33"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="56"/>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="32"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="55"/>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="22" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="B40:C41"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B38:C38"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="B48:C48"/>
@@ -1992,6 +1980,27 @@
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="B40:C41"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A26:A31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A51" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Jose.Rivera_JR.xlsx
+++ b/Jose.Rivera_JR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jrivera\Documents\2021\stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D83A5D-0CDE-45BD-A15F-255227DC39B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D43DA0-6513-42EF-A121-7456581BAF0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
   <si>
     <t>UBICACIÓN ORGANIZACIONAL</t>
   </si>
@@ -639,9 +639,6 @@
     <t xml:space="preserve">Manejar con sigilo información (reporte de vulnerabilidades, diagramas, configuraciones, incidentes) que puede comprometer la seguridad de los sistemas así como información clasificada como confidencial. </t>
   </si>
   <si>
-    <t>Marco Normativo revisado y actualizado.</t>
-  </si>
-  <si>
     <t>Memorias de cálculo, perfil de proyectos entregados y cualquier otra documentación relacionada a inversiones o gastos.</t>
   </si>
   <si>
@@ -690,13 +687,7 @@
     <t>Atender requerimientos de auditores internos/externos</t>
   </si>
   <si>
-    <t>Contribuir en la elaboración y supervisión  de las normativas, políticas, lineamientos, estándares y procedimientos.</t>
-  </si>
-  <si>
     <t>Contribuir en la elaboración de la propuesta de presupuesto de inversiones y gastos en materia de fortalecimiento de la infraestructura tecnológica.</t>
-  </si>
-  <si>
-    <t>Asesorar a la Gerencia de Servicios Tecnológicos en la administración, planificación  y coordinación de los procesos de Gestión de la Servidores, Almacenamiento y Respaldos, Bases de Datos y Soporte Técnico; atender oportunamente y con calidad a las áreas organizativas y clientes del BCN; contribuir en la actualización del marco normativo, formulación y ejecución de presupuesto, Procesos de Aquisiciones,  Atención de Auditorías, Planes de Continuidad y Recuperación ante Desastres para colaborar con la eficiencia de la Gestión Institucional.</t>
   </si>
   <si>
     <t>Falta de seguimiento a las solicitudes de servicios.
@@ -707,6 +698,16 @@
   </si>
   <si>
     <t>Contribuir en la elaboración de procedimientos y guías de  servicios/soluciones propias del proceso que se administra.</t>
+  </si>
+  <si>
+    <t>Asesorar a la Gerencia de Servicios Tecnológicos en la administración, planificación  y coordinación de los procesos de Gestión de la Servidores, Almacenamiento y Respaldos, Bases de Datos y Soporte Técnico; atender oportunamente y con calidad a las áreas organizativas y clientes del BCN; contribuir en la formulación y ejecución de presupuesto, Atención de Auditorías, Planes de Continuidad y Recuperación ante Desastres para colaborar con la eficiencia de la Gestión Institucional.</t>
+  </si>
+  <si>
+    <t>•	Dos (2) Especialistas en Servicios Tecnológicos I
+•	Dos (2) Especialistas en Servicios Tecnológicos II
+•	Tres (3) Profesional en Servicios Tecnológicos I
+•	Un (1) Profesional en Informática II
+•	Un (1) Técnico en Servicios Tecnológicos I</t>
   </si>
 </sst>
 </file>
@@ -1004,13 +1005,70 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1022,12 +1080,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1039,57 +1091,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1163,7 +1164,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="400049" y="0"/>
-          <a:ext cx="4847360" cy="710044"/>
+          <a:ext cx="6194613" cy="706988"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1519,16 +1520,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:M51"/>
+  <dimension ref="A4:M50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:C30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
     <col min="3" max="3" width="43.28515625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
@@ -1538,57 +1539,57 @@
     <row r="4" spans="1:3" ht="8.25" customHeight="1"/>
     <row r="5" spans="1:3" ht="5.25" customHeight="1"/>
     <row r="6" spans="1:3">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
     </row>
     <row r="7" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
     </row>
     <row r="8" spans="1:3" ht="21.75" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="33"/>
+      <c r="B8" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="38"/>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="33"/>
+      <c r="B9" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="38"/>
     </row>
     <row r="10" spans="1:3" ht="22.5" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="33"/>
+      <c r="B10" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="38"/>
     </row>
     <row r="11" spans="1:3" ht="20.25" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="33"/>
+      <c r="B11" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="38"/>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="53" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -1598,51 +1599,51 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1">
-      <c r="A13" s="34"/>
+    <row r="13" spans="1:3" ht="125.25" customHeight="1">
+      <c r="A13" s="53"/>
       <c r="B13" s="23" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="31.5" customHeight="1">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="34"/>
+      <c r="B14" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="53"/>
     </row>
     <row r="15" spans="1:3" ht="42" customHeight="1">
-      <c r="A15" s="36"/>
-      <c r="B15" s="34" t="s">
+      <c r="A15" s="55"/>
+      <c r="B15" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="34"/>
+      <c r="C15" s="53"/>
     </row>
     <row r="16" spans="1:3" ht="12" customHeight="1">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
     </row>
     <row r="17" spans="1:5" ht="11.25" customHeight="1">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="58"/>
+      <c r="C17" s="43"/>
     </row>
     <row r="18" spans="1:5" ht="99.75" customHeight="1">
-      <c r="A18" s="33"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
     </row>
     <row r="19" spans="1:5" ht="25.5">
       <c r="A19" s="19" t="s">
@@ -1657,13 +1658,13 @@
     </row>
     <row r="20" spans="1:5" ht="63.75">
       <c r="A20" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="38.25">
@@ -1674,255 +1675,249 @@
         <v>37</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="38.25">
       <c r="A22" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="51">
+      <c r="A23" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="38.25">
+      <c r="A24" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="25"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="39" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="41.25" customHeight="1">
-      <c r="A23" s="27" t="s">
+      <c r="C25" s="40"/>
+      <c r="E25" s="25"/>
+    </row>
+    <row r="26" spans="1:5" ht="26.25" customHeight="1">
+      <c r="A26" s="60"/>
+      <c r="B26" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="41"/>
+      <c r="E26" s="25"/>
+    </row>
+    <row r="27" spans="1:5" ht="27" customHeight="1">
+      <c r="A27" s="60"/>
+      <c r="B27" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="40"/>
+      <c r="E27" s="25"/>
+    </row>
+    <row r="28" spans="1:5" ht="27" customHeight="1">
+      <c r="A28" s="60"/>
+      <c r="B28" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="36"/>
+      <c r="E28" s="25"/>
+    </row>
+    <row r="29" spans="1:5" ht="39" customHeight="1">
+      <c r="A29" s="60"/>
+      <c r="B29" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="40"/>
+    </row>
+    <row r="30" spans="1:5" ht="28.5" customHeight="1">
+      <c r="A30" s="60"/>
+      <c r="B30" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="56"/>
+    </row>
+    <row r="31" spans="1:5" ht="38.25" customHeight="1">
+      <c r="A31" s="31"/>
+      <c r="B31" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="58"/>
+    </row>
+    <row r="32" spans="1:5" ht="65.25" customHeight="1">
+      <c r="A32" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="51">
-      <c r="A24" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="38.25">
-      <c r="A25" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="25"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="39"/>
-      <c r="E26" s="25"/>
-    </row>
-    <row r="27" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A27" s="43"/>
-      <c r="B27" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="52"/>
-      <c r="E27" s="25"/>
-    </row>
-    <row r="28" spans="1:5" ht="27" customHeight="1">
-      <c r="A28" s="43"/>
-      <c r="B28" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="39"/>
-      <c r="E28" s="25"/>
-    </row>
-    <row r="29" spans="1:5" ht="27" customHeight="1">
-      <c r="A29" s="43"/>
-      <c r="B29" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="50"/>
-      <c r="E29" s="25"/>
-    </row>
-    <row r="30" spans="1:5" ht="39" customHeight="1">
-      <c r="A30" s="43"/>
-      <c r="B30" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="39"/>
-    </row>
-    <row r="31" spans="1:5" ht="28.5" customHeight="1">
-      <c r="A31" s="43"/>
-      <c r="B31" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="37"/>
-    </row>
-    <row r="32" spans="1:5" ht="38.25" customHeight="1">
-      <c r="A32" s="31"/>
-      <c r="B32" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="41"/>
-    </row>
-    <row r="33" spans="1:13" ht="65.25" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="46"/>
-    </row>
-    <row r="34" spans="1:13" ht="15" customHeight="1">
-      <c r="A34" s="47" t="s">
+      <c r="C32" s="47"/>
+    </row>
+    <row r="33" spans="1:13" ht="15" customHeight="1">
+      <c r="A33" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="48"/>
-      <c r="C34" s="49"/>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="16" t="s">
+      <c r="B33" s="49"/>
+      <c r="C33" s="50"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="51" t="s">
+      <c r="B34" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="51"/>
-    </row>
-    <row r="36" spans="1:13" ht="28.5" customHeight="1">
+      <c r="C34" s="51"/>
+    </row>
+    <row r="35" spans="1:13" ht="28.5" customHeight="1">
+      <c r="A35" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="41"/>
+    </row>
+    <row r="36" spans="1:13" ht="39" customHeight="1">
       <c r="A36" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="52"/>
-    </row>
-    <row r="37" spans="1:13" ht="39" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="1:13" ht="30.75" customHeight="1">
       <c r="A37" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="4"/>
-    </row>
-    <row r="38" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A38" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B37" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="52"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="5"/>
-    </row>
-    <row r="39" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A39" s="47" t="s">
+      <c r="C37" s="41"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="5"/>
+    </row>
+    <row r="38" spans="1:13" ht="25.5" customHeight="1">
+      <c r="A38" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="48"/>
-      <c r="C39" s="49"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="50"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A39" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="37"/>
       <c r="I39" s="4"/>
       <c r="J39" s="7"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
     </row>
-    <row r="40" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A40" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="53"/>
+    <row r="40" spans="1:13" ht="9" customHeight="1">
+      <c r="A40" s="38"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
       <c r="I40" s="4"/>
       <c r="J40" s="7"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
     </row>
-    <row r="41" spans="1:13" ht="9" customHeight="1">
-      <c r="A41" s="33"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-    </row>
-    <row r="42" spans="1:13" ht="30.75" customHeight="1">
+    <row r="41" spans="1:13" ht="30.75" customHeight="1">
+      <c r="A41" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="36"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="1:13" ht="161.25" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="50"/>
+        <v>13</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="46"/>
       <c r="I42" s="2"/>
       <c r="J42" s="3"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
     </row>
-    <row r="43" spans="1:13" ht="161.25" customHeight="1">
+    <row r="43" spans="1:13" ht="91.5" customHeight="1">
       <c r="A43" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="45"/>
+        <v>26</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="36"/>
       <c r="I43" s="2"/>
       <c r="J43" s="3"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" spans="1:13" ht="91.5" customHeight="1">
+    <row r="44" spans="1:13" ht="135" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="50"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-    </row>
-    <row r="45" spans="1:13" ht="135" customHeight="1">
-      <c r="A45" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="53" t="s">
+      <c r="B44" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="53"/>
+      <c r="C44" s="37"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="12"/>
@@ -1930,80 +1925,75 @@
       <c r="C46" s="13"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="12"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
+      <c r="A47" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="34"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="C48" s="56"/>
+      <c r="A48" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="33"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="C49" s="55"/>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="22" t="s">
+      <c r="A50" s="22" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="B39:C40"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="B49:C49"/>
     <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:C18"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="B40:C41"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A26:A31"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A51" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A50" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Jose.Rivera_JR.xlsx
+++ b/Jose.Rivera_JR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jrivera\Documents\2021\stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D43DA0-6513-42EF-A121-7456581BAF0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C55E26D-BD61-4EA1-84AD-7548B83B17EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,9 +148,6 @@
     <t>Atender a otras áreas organizativas para satisfacer requerimientos de proyectos o brindar servicios conforme al Manual de Organización y Funciones.</t>
   </si>
   <si>
-    <t>Participar en seminarios, talleres, cursos y reuniones internas/externa en los que el BCN le delegue.</t>
-  </si>
-  <si>
     <t>El puesto demanda la movilización eventual de pesos livianos (equipos de cómputo, papelería, mobiliario de oficina).</t>
   </si>
   <si>
@@ -679,12 +676,6 @@
   </si>
   <si>
     <t>Ejecutar de forma oportuna el presupuesto asignado</t>
-  </si>
-  <si>
-    <t>Coodinar y dar seguimiento a la atención de solicitudes de servicios/bitácoras de desarrollo/traslados a producción</t>
-  </si>
-  <si>
-    <t>Atender requerimientos de auditores internos/externos</t>
   </si>
   <si>
     <t>Contribuir en la elaboración de la propuesta de presupuesto de inversiones y gastos en materia de fortalecimiento de la infraestructura tecnológica.</t>
@@ -708,6 +699,15 @@
 •	Tres (3) Profesional en Servicios Tecnológicos I
 •	Un (1) Profesional en Informática II
 •	Un (1) Técnico en Servicios Tecnológicos I</t>
+  </si>
+  <si>
+    <t>Contribuir con la atención de requerimientos de auditores internos/externos</t>
+  </si>
+  <si>
+    <t>Participar en seminarios, talleres y reuniones internas/externa en los que el BCN le delegue.</t>
+  </si>
+  <si>
+    <t>Coordinar y dar seguimiento a la atención de solicitudes de servicios/bitácoras de desarrollo/traslados a producción</t>
   </si>
 </sst>
 </file>
@@ -1005,6 +1005,72 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1017,24 +1083,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1043,54 +1091,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1522,8 +1522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:M50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1539,57 +1539,57 @@
     <row r="4" spans="1:3" ht="8.25" customHeight="1"/>
     <row r="5" spans="1:3" ht="5.25" customHeight="1"/>
     <row r="6" spans="1:3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
     </row>
     <row r="7" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
     </row>
     <row r="8" spans="1:3" ht="21.75" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="38"/>
+      <c r="B8" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="33"/>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="38"/>
+      <c r="B9" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="33"/>
     </row>
     <row r="10" spans="1:3" ht="22.5" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="38"/>
+      <c r="B10" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="33"/>
     </row>
     <row r="11" spans="1:3" ht="20.25" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="38"/>
+      <c r="B11" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="33"/>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -1600,50 +1600,50 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="125.25" customHeight="1">
-      <c r="A13" s="53"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="31.5" customHeight="1">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="53"/>
+      <c r="B14" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="34"/>
     </row>
     <row r="15" spans="1:3" ht="42" customHeight="1">
-      <c r="A15" s="55"/>
-      <c r="B15" s="53" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="53"/>
+      <c r="C15" s="34"/>
     </row>
     <row r="16" spans="1:3" ht="12" customHeight="1">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
     </row>
     <row r="17" spans="1:5" ht="11.25" customHeight="1">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="43"/>
+      <c r="B17" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="59"/>
     </row>
     <row r="18" spans="1:5" ht="99.75" customHeight="1">
-      <c r="A18" s="38"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
     </row>
     <row r="19" spans="1:5" ht="25.5">
       <c r="A19" s="19" t="s">
@@ -1658,13 +1658,13 @@
     </row>
     <row r="20" spans="1:5" ht="63.75">
       <c r="A20" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="38.25">
@@ -1675,113 +1675,113 @@
         <v>37</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="38.25">
       <c r="A22" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="51">
       <c r="A23" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="24" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="38.25">
       <c r="A24" s="27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" s="25"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="40"/>
+      <c r="B25" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="39"/>
       <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A26" s="60"/>
-      <c r="B26" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="41"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="52"/>
       <c r="E26" s="25"/>
     </row>
     <row r="27" spans="1:5" ht="27" customHeight="1">
-      <c r="A27" s="60"/>
-      <c r="B27" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="40"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="39"/>
       <c r="E27" s="25"/>
     </row>
     <row r="28" spans="1:5" ht="27" customHeight="1">
-      <c r="A28" s="60"/>
-      <c r="B28" s="36" t="s">
+      <c r="A28" s="43"/>
+      <c r="B28" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="50"/>
+      <c r="E28" s="25"/>
+    </row>
+    <row r="29" spans="1:5" ht="39" customHeight="1">
+      <c r="A29" s="43"/>
+      <c r="B29" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="39"/>
+    </row>
+    <row r="30" spans="1:5" ht="28.5" customHeight="1">
+      <c r="A30" s="43"/>
+      <c r="B30" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="E28" s="25"/>
-    </row>
-    <row r="29" spans="1:5" ht="39" customHeight="1">
-      <c r="A29" s="60"/>
-      <c r="B29" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="40"/>
-    </row>
-    <row r="30" spans="1:5" ht="28.5" customHeight="1">
-      <c r="A30" s="60"/>
-      <c r="B30" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="56"/>
+      <c r="C30" s="37"/>
     </row>
     <row r="31" spans="1:5" ht="38.25" customHeight="1">
       <c r="A31" s="31"/>
-      <c r="B31" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="58"/>
+      <c r="B31" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="41"/>
     </row>
     <row r="32" spans="1:5" ht="65.25" customHeight="1">
       <c r="A32" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="47"/>
+      <c r="B32" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="46"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="50"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="49"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="16" t="s">
@@ -1796,31 +1796,31 @@
       <c r="A35" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="41"/>
+      <c r="B35" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="52"/>
     </row>
     <row r="36" spans="1:13" ht="39" customHeight="1">
       <c r="A36" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
       <c r="M36" s="4"/>
     </row>
     <row r="37" spans="1:13" ht="30.75" customHeight="1">
       <c r="A37" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="41"/>
+      <c r="B37" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="52"/>
       <c r="I37" s="5"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
@@ -1828,11 +1828,11 @@
       <c r="M37" s="5"/>
     </row>
     <row r="38" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A38" s="48" t="s">
+      <c r="A38" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="49"/>
-      <c r="C38" s="50"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="49"/>
       <c r="I38" s="4"/>
       <c r="J38" s="7"/>
       <c r="K38" s="4"/>
@@ -1840,13 +1840,13 @@
       <c r="M38" s="4"/>
     </row>
     <row r="39" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="37"/>
+      <c r="C39" s="53"/>
       <c r="I39" s="4"/>
       <c r="J39" s="7"/>
       <c r="K39" s="4"/>
@@ -1854,9 +1854,9 @@
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:13" ht="9" customHeight="1">
-      <c r="A40" s="38"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
       <c r="I40" s="4"/>
       <c r="J40" s="7"/>
       <c r="K40" s="4"/>
@@ -1867,10 +1867,10 @@
       <c r="A41" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="36"/>
+      <c r="C41" s="50"/>
       <c r="I41" s="2"/>
       <c r="J41" s="3"/>
       <c r="K41" s="2"/>
@@ -1881,10 +1881,10 @@
       <c r="A42" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="46"/>
+      <c r="B42" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="45"/>
       <c r="I42" s="2"/>
       <c r="J42" s="3"/>
       <c r="K42" s="2"/>
@@ -1895,10 +1895,10 @@
       <c r="A43" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="36"/>
+      <c r="B43" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="50"/>
       <c r="I43" s="2"/>
       <c r="J43" s="3"/>
       <c r="K43" s="2"/>
@@ -1909,10 +1909,10 @@
       <c r="A44" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="37"/>
+      <c r="B44" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="53"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="12"/>
@@ -1928,19 +1928,19 @@
       <c r="A47" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="34"/>
+      <c r="C47" s="56"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="33"/>
+      <c r="C48" s="55"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1"/>
@@ -1954,27 +1954,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="B39:C40"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B37:C37"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B47:C47"/>
@@ -1991,6 +1970,27 @@
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="B39:C40"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A25:A30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A50" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
